--- a/wwwroot/reports/TaskMachineOverTime.xlsx
+++ b/wwwroot/reports/TaskMachineOverTime.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"> บริษัท วิศวกิจพัฒนา จำกัด</t>
   </si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t>DataField:Remark</t>
-  </si>
-  <si>
-    <t>ถึงเวลา</t>
-  </si>
-  <si>
-    <t>DataField:EndOverTime</t>
   </si>
 </sst>
 </file>
@@ -247,11 +241,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -284,6 +276,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -675,15 +671,13 @@
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.4" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.7">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -691,11 +685,9 @@
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
@@ -703,107 +695,90 @@
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.6">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.6">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.6">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.6">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:8" ht="4.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="4.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
-      <c r="H5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.6">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.6">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="15"/>
+      <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;RPage &amp;P of &amp;N</oddHeader>
-    <oddFooter>&amp;RForm VQP 17.3.06 Version 2</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
